--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,25 +49,25 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>poor</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>smaller</t>
+    <t>waste</t>
   </si>
   <si>
     <t>broke</t>
@@ -79,277 +79,280 @@
     <t>loves</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>best</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>cooks</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>cream</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>exactly</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>always</t>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>ice</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>every</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>ice</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>cup</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>far</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>last</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>last</t>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>product</t>
@@ -713,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,7 +727,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -806,13 +809,13 @@
         <v>20</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -832,13 +835,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6666666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -850,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.8606811145510835</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>556</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>556</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -874,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -882,13 +885,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -900,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.859375</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -924,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -932,13 +935,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3798449612403101</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -950,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8792569659442725</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>568</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>568</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -974,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -982,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3636363636363636</v>
+        <v>0.3875968992248062</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1000,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K7">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1024,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1032,13 +1035,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3207547169811321</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1050,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K8">
-        <v>0.7359307359307359</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L8">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1074,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1082,13 +1085,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.282051282051282</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1100,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K9">
-        <v>0.71875</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1124,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1132,7 +1135,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2352941176470588</v>
+        <v>0.32</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -1150,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K10">
-        <v>0.7173913043478261</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1174,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1182,13 +1185,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1888888888888889</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1200,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K11">
-        <v>0.7084745762711865</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="L11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1224,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1232,13 +1235,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.145631067961165</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1250,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K12">
-        <v>0.6888888888888889</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1274,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1282,13 +1285,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1297297297297297</v>
+        <v>0.1513513513513514</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1300,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K13">
-        <v>0.6623376623376623</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L13">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M13">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1324,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1332,13 +1335,13 @@
         <v>31</v>
       </c>
       <c r="K14">
-        <v>0.6575342465753424</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1350,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1358,13 +1361,13 @@
         <v>32</v>
       </c>
       <c r="K15">
-        <v>0.647887323943662</v>
+        <v>0.6524879614767255</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>813</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>813</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1376,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1384,13 +1387,13 @@
         <v>33</v>
       </c>
       <c r="K16">
-        <v>0.6468699839486356</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L16">
-        <v>806</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>806</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1402,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>440</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1410,13 +1413,13 @@
         <v>34</v>
       </c>
       <c r="K17">
-        <v>0.6363636363636364</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1428,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1436,13 +1439,13 @@
         <v>35</v>
       </c>
       <c r="K18">
-        <v>0.6323529411764706</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1454,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1462,13 +1465,13 @@
         <v>36</v>
       </c>
       <c r="K19">
-        <v>0.6153846153846154</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1480,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1488,13 +1491,13 @@
         <v>37</v>
       </c>
       <c r="K20">
-        <v>0.6114285714285714</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L20">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1506,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1514,13 +1517,13 @@
         <v>38</v>
       </c>
       <c r="K21">
-        <v>0.543859649122807</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1532,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1540,13 +1543,13 @@
         <v>39</v>
       </c>
       <c r="K22">
-        <v>0.5329341317365269</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L22">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1558,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1566,13 +1569,13 @@
         <v>40</v>
       </c>
       <c r="K23">
-        <v>0.5301204819277109</v>
+        <v>0.515625</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1584,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1592,13 +1595,13 @@
         <v>41</v>
       </c>
       <c r="K24">
-        <v>0.5288461538461539</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L24">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1610,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1618,13 +1621,13 @@
         <v>42</v>
       </c>
       <c r="K25">
-        <v>0.5285714285714286</v>
+        <v>0.51</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1636,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1644,13 +1647,13 @@
         <v>43</v>
       </c>
       <c r="K26">
-        <v>0.5131578947368421</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1662,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1670,13 +1673,13 @@
         <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5128205128205128</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1688,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1696,13 +1699,13 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>0.4861111111111111</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1714,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1722,13 +1725,13 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>0.4583333333333333</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1740,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1748,13 +1751,13 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>0.4571428571428571</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1766,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1774,7 +1777,7 @@
         <v>48</v>
       </c>
       <c r="K31">
-        <v>0.4489795918367347</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L31">
         <v>22</v>
@@ -1792,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1800,13 +1803,13 @@
         <v>49</v>
       </c>
       <c r="K32">
-        <v>0.4444444444444444</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1818,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1826,13 +1829,13 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>0.4358974358974359</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1844,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1852,13 +1855,13 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>0.4307692307692308</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1870,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1878,13 +1881,13 @@
         <v>52</v>
       </c>
       <c r="K35">
-        <v>0.42</v>
+        <v>0.4046692607003891</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1896,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>58</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1904,13 +1907,13 @@
         <v>53</v>
       </c>
       <c r="K36">
-        <v>0.4197530864197531</v>
+        <v>0.3946078431372549</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="M36">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1922,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>47</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1930,13 +1933,13 @@
         <v>54</v>
       </c>
       <c r="K37">
-        <v>0.4156626506024096</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="L37">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1948,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1956,13 +1959,13 @@
         <v>55</v>
       </c>
       <c r="K38">
-        <v>0.3970588235294117</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="L38">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="M38">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1974,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>246</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1982,25 +1985,25 @@
         <v>56</v>
       </c>
       <c r="K39">
-        <v>0.3834586466165413</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L39">
+        <v>30</v>
+      </c>
+      <c r="M39">
+        <v>30</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>51</v>
-      </c>
-      <c r="M39">
-        <v>51</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>82</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2008,13 +2011,13 @@
         <v>57</v>
       </c>
       <c r="K40">
-        <v>0.3813229571984436</v>
+        <v>0.3589041095890411</v>
       </c>
       <c r="L40">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="M40">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2026,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>159</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2034,13 +2037,13 @@
         <v>58</v>
       </c>
       <c r="K41">
-        <v>0.3794520547945205</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="L41">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2052,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>453</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2060,13 +2063,13 @@
         <v>59</v>
       </c>
       <c r="K42">
-        <v>0.3529411764705883</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2078,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2086,13 +2089,13 @@
         <v>60</v>
       </c>
       <c r="K43">
-        <v>0.3458646616541353</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L43">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2104,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2112,13 +2115,13 @@
         <v>61</v>
       </c>
       <c r="K44">
-        <v>0.3442622950819672</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2130,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2138,13 +2141,13 @@
         <v>62</v>
       </c>
       <c r="K45">
-        <v>0.3392857142857143</v>
+        <v>0.3253588516746411</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2156,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>37</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2164,13 +2167,13 @@
         <v>63</v>
       </c>
       <c r="K46">
-        <v>0.3265306122448979</v>
+        <v>0.3240740740740741</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2182,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2190,13 +2193,13 @@
         <v>64</v>
       </c>
       <c r="K47">
-        <v>0.3235294117647059</v>
+        <v>0.3237410071942446</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M47">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2208,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2216,13 +2219,13 @@
         <v>65</v>
       </c>
       <c r="K48">
-        <v>0.3064516129032258</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2234,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2242,13 +2245,13 @@
         <v>66</v>
       </c>
       <c r="K49">
-        <v>0.304635761589404</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="L49">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2260,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>105</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2268,13 +2271,13 @@
         <v>67</v>
       </c>
       <c r="K50">
-        <v>0.3014354066985646</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L50">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2286,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2294,13 +2297,13 @@
         <v>68</v>
       </c>
       <c r="K51">
-        <v>0.2894736842105263</v>
+        <v>0.2658772874058127</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="M51">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2312,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>54</v>
+        <v>682</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2320,13 +2323,13 @@
         <v>69</v>
       </c>
       <c r="K52">
-        <v>0.2882882882882883</v>
+        <v>0.2649006622516556</v>
       </c>
       <c r="L52">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2338,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2346,7 +2349,7 @@
         <v>70</v>
       </c>
       <c r="K53">
-        <v>0.2871287128712871</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L53">
         <v>29</v>
@@ -2364,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2372,13 +2375,13 @@
         <v>71</v>
       </c>
       <c r="K54">
-        <v>0.2805755395683453</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L54">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2390,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2398,25 +2401,25 @@
         <v>72</v>
       </c>
       <c r="K55">
-        <v>0.2658772874058127</v>
+        <v>0.25</v>
       </c>
       <c r="L55">
-        <v>247</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>682</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2424,13 +2427,13 @@
         <v>73</v>
       </c>
       <c r="K56">
-        <v>0.2442455242966752</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="L56">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2442,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>591</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2450,13 +2453,13 @@
         <v>74</v>
       </c>
       <c r="K57">
-        <v>0.2380952380952381</v>
+        <v>0.233112582781457</v>
       </c>
       <c r="L57">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="M57">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2468,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>64</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2476,13 +2479,13 @@
         <v>75</v>
       </c>
       <c r="K58">
-        <v>0.2281879194630873</v>
+        <v>0.2276214833759591</v>
       </c>
       <c r="L58">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="M58">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2494,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>115</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2502,25 +2505,25 @@
         <v>76</v>
       </c>
       <c r="K59">
-        <v>0.2232142857142857</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N59">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2528,13 +2531,13 @@
         <v>77</v>
       </c>
       <c r="K60">
-        <v>0.2185430463576159</v>
+        <v>0.2</v>
       </c>
       <c r="L60">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2546,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>590</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2554,13 +2557,13 @@
         <v>78</v>
       </c>
       <c r="K61">
-        <v>0.213166144200627</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L61">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M61">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2572,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2580,13 +2583,13 @@
         <v>79</v>
       </c>
       <c r="K62">
-        <v>0.2037037037037037</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M62">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2598,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2606,25 +2609,25 @@
         <v>80</v>
       </c>
       <c r="K63">
-        <v>0.1972972972972973</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L63">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="M63">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="N63">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>297</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2632,13 +2635,13 @@
         <v>81</v>
       </c>
       <c r="K64">
-        <v>0.1891891891891892</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L64">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M64">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2650,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>90</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2658,25 +2661,25 @@
         <v>82</v>
       </c>
       <c r="K65">
-        <v>0.1847826086956522</v>
+        <v>0.1842818428184282</v>
       </c>
       <c r="L65">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="M65">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>75</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2684,13 +2687,13 @@
         <v>83</v>
       </c>
       <c r="K66">
-        <v>0.1837708830548926</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="L66">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M66">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2702,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>342</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2710,13 +2713,13 @@
         <v>84</v>
       </c>
       <c r="K67">
-        <v>0.1764705882352941</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2728,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>70</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2736,13 +2739,13 @@
         <v>85</v>
       </c>
       <c r="K68">
-        <v>0.1754385964912281</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L68">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M68">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2754,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>376</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2762,13 +2765,13 @@
         <v>86</v>
       </c>
       <c r="K69">
-        <v>0.1678832116788321</v>
+        <v>0.1527446300715991</v>
       </c>
       <c r="L69">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M69">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2780,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2788,13 +2791,13 @@
         <v>87</v>
       </c>
       <c r="K70">
-        <v>0.1651376146788991</v>
+        <v>0.15</v>
       </c>
       <c r="L70">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="M70">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2806,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>91</v>
+        <v>374</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2814,13 +2817,13 @@
         <v>88</v>
       </c>
       <c r="K71">
-        <v>0.1646341463414634</v>
+        <v>0.1452991452991453</v>
       </c>
       <c r="L71">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M71">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2832,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2840,13 +2843,13 @@
         <v>89</v>
       </c>
       <c r="K72">
-        <v>0.1615384615384615</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L72">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M72">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2858,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2866,13 +2869,13 @@
         <v>90</v>
       </c>
       <c r="K73">
-        <v>0.1586715867158671</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="L73">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M73">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2884,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>228</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2892,13 +2895,13 @@
         <v>91</v>
       </c>
       <c r="K74">
-        <v>0.1523809523809524</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2910,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>89</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2918,13 +2921,13 @@
         <v>92</v>
       </c>
       <c r="K75">
-        <v>0.1452991452991453</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="L75">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M75">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2936,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2944,13 +2947,13 @@
         <v>93</v>
       </c>
       <c r="K76">
-        <v>0.1412429378531073</v>
+        <v>0.1291512915129151</v>
       </c>
       <c r="L76">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M76">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2962,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>152</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2970,13 +2973,13 @@
         <v>94</v>
       </c>
       <c r="K77">
-        <v>0.141025641025641</v>
+        <v>0.1218487394957983</v>
       </c>
       <c r="L77">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M77">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2988,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>134</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2996,25 +2999,25 @@
         <v>95</v>
       </c>
       <c r="K78">
-        <v>0.1409090909090909</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="L78">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M78">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>378</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3022,13 +3025,13 @@
         <v>96</v>
       </c>
       <c r="K79">
-        <v>0.140893470790378</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L79">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M79">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3040,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>250</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3048,25 +3051,25 @@
         <v>97</v>
       </c>
       <c r="K80">
-        <v>0.1338289962825279</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L80">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="M80">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N80">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>233</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3074,13 +3077,13 @@
         <v>98</v>
       </c>
       <c r="K81">
-        <v>0.1330049261083744</v>
+        <v>0.1104294478527607</v>
       </c>
       <c r="L81">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M81">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3092,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3100,25 +3103,25 @@
         <v>99</v>
       </c>
       <c r="K82">
-        <v>0.1172839506172839</v>
+        <v>0.1083743842364532</v>
       </c>
       <c r="L82">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M82">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N82">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>143</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3126,13 +3129,13 @@
         <v>100</v>
       </c>
       <c r="K83">
-        <v>0.103030303030303</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="L83">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M83">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3144,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3152,25 +3155,25 @@
         <v>101</v>
       </c>
       <c r="K84">
-        <v>0.1014492753623188</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="L84">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M84">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N84">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>186</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3178,13 +3181,13 @@
         <v>102</v>
       </c>
       <c r="K85">
-        <v>0.1008403361344538</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L85">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M85">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3196,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>214</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3204,25 +3207,25 @@
         <v>103</v>
       </c>
       <c r="K86">
-        <v>0.09928057553956834</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="L86">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M86">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="N86">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O86">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3230,25 +3233,25 @@
         <v>104</v>
       </c>
       <c r="K87">
-        <v>0.09836065573770492</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="L87">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="M87">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>330</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3256,13 +3259,13 @@
         <v>105</v>
       </c>
       <c r="K88">
-        <v>0.0846774193548387</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="L88">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M88">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3274,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3282,25 +3285,25 @@
         <v>106</v>
       </c>
       <c r="K89">
-        <v>0.08133086876155268</v>
+        <v>0.08029878618113913</v>
       </c>
       <c r="L89">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="M89">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="N89">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O89">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>497</v>
+        <v>985</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3308,25 +3311,25 @@
         <v>107</v>
       </c>
       <c r="K90">
-        <v>0.07663551401869159</v>
+        <v>0.06067961165048544</v>
       </c>
       <c r="L90">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M90">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="N90">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O90">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>988</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3334,25 +3337,25 @@
         <v>108</v>
       </c>
       <c r="K91">
-        <v>0.06598984771573604</v>
+        <v>0.05758157389635317</v>
       </c>
       <c r="L91">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M91">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>368</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3360,25 +3363,25 @@
         <v>109</v>
       </c>
       <c r="K92">
-        <v>0.06239168110918544</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="L92">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="M92">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="N92">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O92">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>1082</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3386,25 +3389,25 @@
         <v>110</v>
       </c>
       <c r="K93">
-        <v>0.05234159779614325</v>
+        <v>0.05350553505535055</v>
       </c>
       <c r="L93">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M93">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N93">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>344</v>
+        <v>513</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3412,25 +3415,25 @@
         <v>111</v>
       </c>
       <c r="K94">
-        <v>0.04798464491362764</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="L94">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M94">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N94">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>496</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3438,24 +3441,50 @@
         <v>112</v>
       </c>
       <c r="K95">
-        <v>0.02638522427440633</v>
+        <v>0.04423243712055507</v>
       </c>
       <c r="L95">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="M95">
+        <v>55</v>
+      </c>
+      <c r="N95">
+        <v>0.93</v>
+      </c>
+      <c r="O95">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K96">
+        <v>0.02766798418972332</v>
+      </c>
+      <c r="L96">
+        <v>21</v>
+      </c>
+      <c r="M96">
         <v>29</v>
       </c>
-      <c r="N95">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="O95">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="P95" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q95">
+      <c r="N96">
+        <v>0.72</v>
+      </c>
+      <c r="O96">
+        <v>0.28</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
         <v>738</v>
       </c>
     </row>
